--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.06040833333333</v>
+        <v>24.84807066666667</v>
       </c>
       <c r="H2">
-        <v>90.181225</v>
+        <v>74.544212</v>
       </c>
       <c r="I2">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="J2">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N2">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P2">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q2">
-        <v>1587.438891046853</v>
+        <v>346.1324565273454</v>
       </c>
       <c r="R2">
-        <v>14286.95001942168</v>
+        <v>3115.192108746108</v>
       </c>
       <c r="S2">
-        <v>0.03234070816078587</v>
+        <v>0.01338078198200697</v>
       </c>
       <c r="T2">
-        <v>0.03234070816078587</v>
+        <v>0.01338078198200697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.06040833333333</v>
+        <v>24.84807066666667</v>
       </c>
       <c r="H3">
-        <v>90.181225</v>
+        <v>74.544212</v>
       </c>
       <c r="I3">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="J3">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N3">
         <v>243.233009</v>
       </c>
       <c r="O3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P3">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q3">
-        <v>2437.227856895114</v>
+        <v>2014.62366536599</v>
       </c>
       <c r="R3">
-        <v>21935.05071205603</v>
+        <v>18131.61298829391</v>
       </c>
       <c r="S3">
-        <v>0.04965336006679458</v>
+        <v>0.07788128369269059</v>
       </c>
       <c r="T3">
-        <v>0.04965336006679458</v>
+        <v>0.07788128369269058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.06040833333333</v>
+        <v>24.84807066666667</v>
       </c>
       <c r="H4">
-        <v>90.181225</v>
+        <v>74.544212</v>
       </c>
       <c r="I4">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="J4">
-        <v>0.1875845602414817</v>
+        <v>0.1383130136760648</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N4">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P4">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q4">
-        <v>5182.893729917813</v>
+        <v>1217.108255373498</v>
       </c>
       <c r="R4">
-        <v>46646.04356926033</v>
+        <v>10953.97429836149</v>
       </c>
       <c r="S4">
-        <v>0.1055904920139012</v>
+        <v>0.04705094800136728</v>
       </c>
       <c r="T4">
-        <v>0.1055904920139012</v>
+        <v>0.04705094800136728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>317.3795699999999</v>
       </c>
       <c r="I5">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="J5">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N5">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O5">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P5">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q5">
-        <v>5586.757915982257</v>
+        <v>1473.69416442007</v>
       </c>
       <c r="R5">
-        <v>50280.82124384031</v>
+        <v>13263.24747978063</v>
       </c>
       <c r="S5">
-        <v>0.1138183701714598</v>
+        <v>0.0569700412382536</v>
       </c>
       <c r="T5">
-        <v>0.1138183701714598</v>
+        <v>0.0569700412382536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>317.3795699999999</v>
       </c>
       <c r="I6">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="J6">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N6">
         <v>243.233009</v>
       </c>
       <c r="O6">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P6">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q6">
-        <v>8577.465311802904</v>
+        <v>8577.465311802902</v>
       </c>
       <c r="R6">
-        <v>77197.18780622612</v>
+        <v>77197.18780622611</v>
       </c>
       <c r="S6">
-        <v>0.1747477046031969</v>
+        <v>0.3315874923922216</v>
       </c>
       <c r="T6">
-        <v>0.1747477046031969</v>
+        <v>0.3315874923922215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>317.3795699999999</v>
       </c>
       <c r="I7">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="J7">
-        <v>0.6601762957653385</v>
+        <v>0.5888817337812031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N7">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O7">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P7">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q7">
-        <v>18240.43289894334</v>
+        <v>5181.962279430776</v>
       </c>
       <c r="R7">
-        <v>164163.8960904901</v>
+        <v>46637.66051487698</v>
       </c>
       <c r="S7">
-        <v>0.3716102209906818</v>
+        <v>0.200324200150728</v>
       </c>
       <c r="T7">
-        <v>0.3716102209906818</v>
+        <v>0.200324200150728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.39630866666667</v>
+        <v>49.00973533333333</v>
       </c>
       <c r="H8">
-        <v>73.18892600000001</v>
+        <v>147.029206</v>
       </c>
       <c r="I8">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="J8">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.80829433333334</v>
+        <v>13.929953</v>
       </c>
       <c r="N8">
-        <v>158.424883</v>
+        <v>41.789859</v>
       </c>
       <c r="O8">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="P8">
-        <v>0.1724060238174878</v>
+        <v>0.09674275490334808</v>
       </c>
       <c r="Q8">
-        <v>1288.327448716185</v>
+        <v>682.7033097357726</v>
       </c>
       <c r="R8">
-        <v>11594.94703844566</v>
+        <v>6144.329787621953</v>
       </c>
       <c r="S8">
-        <v>0.02624694548524211</v>
+        <v>0.02639193168308749</v>
       </c>
       <c r="T8">
-        <v>0.02624694548524211</v>
+        <v>0.02639193168308749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.39630866666667</v>
+        <v>49.00973533333333</v>
       </c>
       <c r="H9">
-        <v>73.18892600000001</v>
+        <v>147.029206</v>
       </c>
       <c r="I9">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="J9">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>81.07766966666668</v>
+        <v>81.07766966666667</v>
       </c>
       <c r="N9">
         <v>243.233009</v>
       </c>
       <c r="O9">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129374</v>
       </c>
       <c r="P9">
-        <v>0.2646985445010758</v>
+        <v>0.5630799418129373</v>
       </c>
       <c r="Q9">
-        <v>1977.995855162038</v>
+        <v>3973.595131806761</v>
       </c>
       <c r="R9">
-        <v>17801.96269645834</v>
+        <v>35762.35618626085</v>
       </c>
       <c r="S9">
-        <v>0.0402974798310844</v>
+        <v>0.1536111657280252</v>
       </c>
       <c r="T9">
-        <v>0.0402974798310844</v>
+        <v>0.1536111657280252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.39630866666667</v>
+        <v>49.00973533333333</v>
       </c>
       <c r="H10">
-        <v>73.18892600000001</v>
+        <v>147.029206</v>
       </c>
       <c r="I10">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="J10">
-        <v>0.1522391439931798</v>
+        <v>0.272805252542732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>172.4159456666667</v>
+        <v>48.98200233333333</v>
       </c>
       <c r="N10">
-        <v>517.247837</v>
+        <v>146.946007</v>
       </c>
       <c r="O10">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="P10">
-        <v>0.5628954316814363</v>
+        <v>0.3401773032837146</v>
       </c>
       <c r="Q10">
-        <v>4206.312629539229</v>
+        <v>2400.594970453382</v>
       </c>
       <c r="R10">
-        <v>37856.81366585306</v>
+        <v>21605.35473408044</v>
       </c>
       <c r="S10">
-        <v>0.08569471867685328</v>
+        <v>0.0928021551316193</v>
       </c>
       <c r="T10">
-        <v>0.08569471867685328</v>
+        <v>0.0928021551316193</v>
       </c>
     </row>
   </sheetData>
